--- a/Sample/文法問題.xlsx
+++ b/Sample/文法問題.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tane\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Develop\ZeikomiTango\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B8A7F-0FF8-41EF-97E1-F0A08277CB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4E48CDE-B925-4F26-B564-8EB500CB65B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69193FB2-DD51-48D0-8F7F-4F5D7091DCD3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="229">
   <si>
     <t>The board presented Mr. Plith with a bonus to show appreciation for ----- hard work on the Slabvolt project.</t>
     <phoneticPr fontId="1"/>
@@ -1396,6 +1397,673 @@
     </rPh>
     <rPh sb="82" eb="85">
       <t>フクスウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After lengthy consideration, the manager of the company decided that ----- needed a personal assistant.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officials ----- at the end of this week to discuss methods for reducing traffic congestion in the city.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>have met</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to meet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>will meet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-----, discounts can often be obtained simply by requestiong a lower price from the vendor.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surprising</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surprised</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surprisingly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surprise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abooklet of gift certificates from local businesses is ----- in the envelope.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enclose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enclosing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enclosed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enclosure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The publishing project was rushes, but the editor was ----- satisfied with the quality of the final draft.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reasonably</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reasoned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reasonable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reasonablity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mr. Yeboah was chosen to head the campaign team because he displayed the best ----- of the techical aspects of the new product.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understandable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understanding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>understandably</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jefferson International Airport used to be among the busiest in the region, ----- more than 1,500 passengers per hour.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serves</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serving</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>served</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The organizing committee has recommended the ballroom at the Hotel Des Chatons as the ----- venue for the award ceremony.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ideally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idealize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ideal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idealism</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The data collected during the study was -----, and the marketing team has adjustedits strategy as a result.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>informing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>informative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>informatively</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The CEO of Fremont Beverages was pleased to see that the sales figures ----- a vast improvement for the company.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>representing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>representation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>represented</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Due to its recent expansion. Neff Manufaturing has numerious job ----- across the country.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opens</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ms. Brice has drawn up blueprints for a condominium complex in New York, ----- is intended to appeal to senior citizens.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>what</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The decision to charge for admission to the banquet surprised many, as ----- held in previous years were free of charge.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>functions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>functionally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>functional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>functioned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主語がかけている
+A : 所有格
+B : 主格
+C : 目的格
+D : 再帰代名詞</t>
+    <rPh sb="0" eb="2">
+      <t>シュゴ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショユウカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュカク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モクテキカク</t>
+    </rPh>
+    <rPh sb="36" eb="41">
+      <t>サイキダイメイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動詞がかけている
+A : 現在完了(すでに完了している)
+B : 不定詞(動詞として機能しない)
+C : 動詞
+D : 現在分詞 (動詞として機能しない)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ゲンザイカンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>フテイシ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ブンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄を除いても文章が成り立つので副詞が有力
+A : 現在分詞か動名詞
+B : 過去形か過去分詞
+C : 副詞
+D : 動詞</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブンシ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カコケイ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>カコブンシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小冊子が同封されるという受け身の動詞
+A : 動詞の原形
+B : 過去分詞または動名詞
+C : 受け身の動詞
+D : 名詞
+</t>
+    <rPh sb="0" eb="3">
+      <t>ショウサッシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウフウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンケイ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>カコブンシ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄がなくても完成している
+副詞の可能性が高い
+reasonably : 副詞
+reasoned : 動詞
+reasonable : 形容詞
+reasonability : 名詞</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冠詞 + 形容詞の後なので名詞
+understands : 動詞
+understandable : 形容詞
+understanding : 動名詞
+understandably : 副詞</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>, までで文章が完成している
+Jeferson Airportはserviceする側なのでserving</t>
+    <rPh sb="5" eb="7">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冠詞 + 空欄 + 名詞のため
+形容詞が有力
+ideally : 副詞
+idealize : 動詞
+ideal : 形容詞
+idealism : 名詞</t>
+    <rPh sb="5" eb="7">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The data was ----なので形容詞が欲しい
+informing : 動名詞
+inform : 動詞
+informative : 形容詞
+informatively : 副詞</t>
+    <rPh sb="20" eb="23">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>figures の意味を補いたい
+次にimprovementの名詞が来ているので
+動詞が有力
+representative : 名詞または形容詞
+representing : 現在分詞または動名詞
+representation : 名詞
+represented : 動詞の過去形</t>
+    <rPh sb="9" eb="11">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オギナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ユウリョク</t>
+    </rPh>
+    <rPh sb="89" eb="93">
+      <t>ゲンザイブンシ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>カコケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numerious の後ろには複数名詞が必要なのでopenings
+opens : 動詞
+opened : 過去形の動詞
+openings : 動名詞
+openly : 副詞</t>
+    <rPh sb="11" eb="12">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カコケイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ドウメイシ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文脈から推測
+後半の文章がcondominiumを説明しているのでwhich</t>
+    <rPh sb="0" eb="2">
+      <t>ブンミャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wereの動詞に対する主語が抜けている
+ので名詞がくる
+functions : 名詞
+functionally : 副詞
+functional : 形容詞
+functioned : 動詞</t>
+    <rPh sb="5" eb="7">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>メイシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ケイヨウシドウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1443,12 +2111,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,16 +2435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42BF28-BCB6-4558-99E8-D768FD622647}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="102.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
@@ -1918,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1964,7 +2635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +2658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2010,7 +2681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +2727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -2079,7 +2750,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2102,7 +2773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2125,7 +2796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -2171,7 +2842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2888,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -2263,7 +2934,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -2309,7 +2980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="206.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="150" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -2376,6 +3047,305 @@
       </c>
       <c r="G26" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="150" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
